--- a/src/pi/example/tranfrom.xlsx
+++ b/src/pi/example/tranfrom.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
